--- a/analyses/metagomics/susvsink/ja14/go_report_ja14_06.28.18.xlsx
+++ b/analyses/metagomics/susvsink/ja14/go_report_ja14_06.28.18.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/metagomics/susvsink/ja14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B94D3A0-C1F5-024C-97C6-80D0C17BD596}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67D02BF-2D46-C240-82BC-418513335747}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="4560" windowWidth="26840" windowHeight="15940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="4440" windowWidth="26840" windowHeight="15940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="go_report_ja14_06.28.18" sheetId="1" r:id="rId1"/>
@@ -4699,8 +4699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F630"/>
   <sheetViews>
-    <sheetView topLeftCell="A595" workbookViewId="0">
-      <selection sqref="A1:F630"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H619" sqref="H619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17271,7 +17271,8 @@
   <dimension ref="A1:F422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -25736,7 +25737,8 @@
   <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -28100,7 +28102,8 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/analyses/metagomics/susvsink/ja14/go_report_ja14_06.28.18.xlsx
+++ b/analyses/metagomics/susvsink/ja14/go_report_ja14_06.28.18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/metagomics/susvsink/ja14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67D02BF-2D46-C240-82BC-418513335747}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AB4DFB-1C93-FB45-907E-7F8B7819F7E5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="4440" windowWidth="26840" windowHeight="15940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4000" yWindow="4260" windowWidth="26840" windowHeight="15940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="go_report_ja14_06.28.18" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="molecular function" sheetId="4" r:id="rId4"/>
     <sheet name="compiled" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3783" uniqueCount="1261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3789" uniqueCount="1263">
   <si>
     <t># MetaGOmics GO report</t>
   </si>
@@ -3807,6 +3807,12 @@
   </si>
   <si>
     <t>oxidoreductase activity</t>
+  </si>
+  <si>
+    <t>counts</t>
+  </si>
+  <si>
+    <t>extracellular</t>
   </si>
 </sst>
 </file>
@@ -25734,11 +25740,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94272414-66D3-8544-AD7A-0D80F4163F9F}">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -25749,7 +25755,7 @@
     <col min="7" max="7" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="33" customHeight="1">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="33" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -25769,7 +25775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>360</v>
       </c>
@@ -25789,7 +25795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -25808,8 +25814,11 @@
       <c r="F3">
         <v>0.74637681159420199</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="I3" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>754</v>
       </c>
@@ -25828,8 +25837,15 @@
       <c r="F4">
         <v>0.25362318840579701</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="H4" t="s">
+        <v>881</v>
+      </c>
+      <c r="I4">
+        <f>SUM(D12,D19,D23,D42)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>1197</v>
       </c>
@@ -25848,8 +25864,15 @@
       <c r="F5">
         <v>0.137681159420289</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="H5" t="s">
+        <v>973</v>
+      </c>
+      <c r="I5">
+        <f>SUM(D27,D37,D41,D46,D51,D56,D103,D111)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>104</v>
       </c>
@@ -25868,8 +25891,15 @@
       <c r="F6">
         <v>0.13043478260869501</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="H6" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I6">
+        <f>SUM(D5,D6,D8,D11,D13,D25,D30,D34,D41,D43,D47,D49,D51,D54,D56,D57,D58,D59,D63,D64,D65,D76,D89,D108,D114,D116,D117)</f>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>567</v>
       </c>
@@ -25888,8 +25918,15 @@
       <c r="F7">
         <v>0.13043478260869501</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="H7" t="s">
+        <v>633</v>
+      </c>
+      <c r="I7">
+        <f>SUM(D16,D48,D61,D72,D78,D86,D91,D99,D100,D102)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>569</v>
       </c>
@@ -25908,8 +25945,15 @@
       <c r="F8">
         <v>0.13043478260869501</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="H8" t="s">
+        <v>1262</v>
+      </c>
+      <c r="I8">
+        <f>SUM(D14,D64,D67,D81,D85,D90,D94)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>573</v>
       </c>
@@ -25929,7 +25973,7 @@
         <v>0.13043478260869501</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>676</v>
       </c>
@@ -25949,7 +25993,7 @@
         <v>0.13043478260869501</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>678</v>
       </c>
@@ -25969,7 +26013,7 @@
         <v>0.13043478260869501</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>708</v>
       </c>
@@ -25989,7 +26033,7 @@
         <v>0.13043478260869501</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>848</v>
       </c>
@@ -26009,7 +26053,7 @@
         <v>0.13043478260869501</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>148</v>
       </c>
@@ -26029,7 +26073,7 @@
         <v>0.123188405797101</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>585</v>
       </c>
@@ -26049,7 +26093,7 @@
         <v>0.123188405797101</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>632</v>
       </c>
@@ -28101,7 +28145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75B9073-EAE6-D646-9219-9AE82E9874E0}">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
